--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1002599.349823152</v>
+        <v>1044672.678679517</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18152047.48133117</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101364.287467431</v>
+        <v>606553.2040797169</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6657929.195602493</v>
+        <v>7181698.156231138</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.5716186828009</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>240.4380357778681</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
@@ -677,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>29.18607610565393</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>52.5117099198479</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -896,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>162.8242666525135</v>
       </c>
       <c r="D5" t="n">
-        <v>285.4694903618</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.1772265485036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1108,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>324.2330151622618</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>84.69229718259454</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>135.1077460700512</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>164.9714918432747</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>210.4881857315376</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023038</v>
       </c>
       <c r="H13" t="n">
-        <v>31.24391673888148</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119178</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>81.25880049210021</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023038</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>32.9806632713258</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>61.43755362246745</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2242,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>39.86022305741668</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344284</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>56.72042565247619</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>27.07950026194634</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3721,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>354.9648390533892</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>159.1014827438866</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022982</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.2488652374468</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>247.786846921277</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494637</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2479.623634536778</v>
+        <v>2284.764653898988</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.481161720201</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.571376894645</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E2" t="n">
-        <v>1171.796632052941</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F2" t="n">
-        <v>743.9292024621484</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>2326.37159938372</v>
       </c>
       <c r="X2" t="n">
-        <v>2654.14371650258</v>
+        <v>2311.269540003434</v>
       </c>
       <c r="Y2" t="n">
-        <v>2649.897996842637</v>
+        <v>2307.023820343492</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4403,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>1375.081325612185</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>1716.640978007438</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.8681021663376</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C4" t="n">
-        <v>794.3063906495626</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="D4" t="n">
-        <v>628.4283978510853</v>
+        <v>734.8406085551388</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>565.0826048058761</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>388.3755507676324</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>222.78427579346</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>82.88210148383456</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U4" t="n">
-        <v>2190.480058781082</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V4" t="n">
-        <v>1903.524550651513</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W4" t="n">
-        <v>1631.498146237804</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X4" t="n">
-        <v>1386.106391571217</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y4" t="n">
-        <v>1158.686720885325</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>835.1152837074472</v>
+        <v>707.7581132933932</v>
       </c>
       <c r="C5" t="n">
-        <v>396.9728108908706</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>108.6197903233958</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>78.88544952209503</v>
+        <v>77.64503145187678</v>
       </c>
       <c r="F5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>490.3131114246247</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>674.5723545739454</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L5" t="n">
-        <v>674.5723545739454</v>
+        <v>687.5406628060929</v>
       </c>
       <c r="M5" t="n">
-        <v>674.5723545739454</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N5" t="n">
-        <v>674.5723545739454</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="O5" t="n">
-        <v>1355.920351223817</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P5" t="n">
-        <v>2037.268347873689</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2583.767133832284</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2752.921198585341</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2752.921198585341</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U5" t="n">
-        <v>2493.698895902357</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V5" t="n">
-        <v>2493.698895902357</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.843441313391</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X5" t="n">
-        <v>1669.700977892702</v>
+        <v>1542.343807478648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1261.414854192355</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>81.12209713216441</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J6" t="n">
-        <v>405.6804220983768</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.3864687241</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.3864687241</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.3864687241</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.3864687241</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.3864687241</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.3864687241</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1601.125407356176</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1134.116584583588</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>961.5548730668132</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>795.6768802683359</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>625.9188765190731</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>449.2118224808293</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.620547506657</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.7183731970315</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.718033874507</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.476665172503</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.597218750958</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1988.164218004064</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="V7" t="n">
-        <v>1701.208709874494</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1429.182305460786</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.790550794198</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>1183.790550794198</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>874.2703592634692</v>
+        <v>1735.906148501163</v>
       </c>
       <c r="C8" t="n">
-        <v>840.1682904872966</v>
+        <v>1297.763675684586</v>
       </c>
       <c r="D8" t="n">
-        <v>512.6601943637999</v>
+        <v>861.8538908590308</v>
       </c>
       <c r="E8" t="n">
-        <v>78.88544952209503</v>
+        <v>428.079146017326</v>
       </c>
       <c r="F8" t="n">
-        <v>55.05842397170682</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>55.05842397170682</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>490.3131114246247</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1171.661108074496</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1355.920351223817</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1355.920351223817</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1355.920351223817</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O8" t="n">
-        <v>1355.920351223817</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2037.268347873689</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>2583.767133832284</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2752.921198585341</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2532.853971458379</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2532.853971458379</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2532.853971458379</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.998516869413</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>1708.856053448724</v>
+        <v>2166.451438646013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1300.569929748377</v>
+        <v>2162.205718986071</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>55.05842397170682</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>55.05842397170682</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>55.05842397170682</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>736.4064206215786</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>736.4064206215786</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="N9" t="n">
-        <v>736.4064206215786</v>
+        <v>740.3049442308646</v>
       </c>
       <c r="O9" t="n">
-        <v>736.4064206215786</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1417.75441727145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.125407356176</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>743.1344400946909</v>
+        <v>933.2958513705994</v>
       </c>
       <c r="C10" t="n">
-        <v>570.5727285779159</v>
+        <v>760.7341398538243</v>
       </c>
       <c r="D10" t="n">
-        <v>404.6947357794386</v>
+        <v>760.7341398538243</v>
       </c>
       <c r="E10" t="n">
-        <v>234.9367320301758</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>58.22967799193205</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>55.05842397170682</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>55.05842397170682</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2650.300212579878</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2491.058843877875</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T10" t="n">
-        <v>2245.17939745633</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U10" t="n">
-        <v>1966.746396709435</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1679.790888579866</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W10" t="n">
-        <v>1407.764484166157</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1162.37272949957</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.9530588136781</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>927.3924310028483</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>489.2499581862717</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>489.2499581862717</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>55.47521334456681</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>55.47521334456681</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>55.47521334456681</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.47521334456681</v>
+        <v>94.18688869171362</v>
       </c>
       <c r="I11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J11" t="n">
-        <v>490.3131114246247</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K11" t="n">
-        <v>1171.661108074496</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="L11" t="n">
-        <v>1355.920351223817</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="M11" t="n">
-        <v>1355.920351223817</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N11" t="n">
-        <v>1355.920351223817</v>
+        <v>2164.362573827328</v>
       </c>
       <c r="O11" t="n">
-        <v>1355.920351223817</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="P11" t="n">
-        <v>2037.268347873689</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="Q11" t="n">
-        <v>2583.767133832284</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R11" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S11" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="T11" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126518</v>
       </c>
       <c r="U11" t="n">
-        <v>2752.921198585341</v>
+        <v>4345.630789443535</v>
       </c>
       <c r="V11" t="n">
-        <v>2390.304248519167</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>1985.448793930201</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.306330509511</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1353.692001487756</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I12" t="n">
-        <v>81.12209713216441</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J12" t="n">
-        <v>405.6804220983768</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K12" t="n">
-        <v>1060.3864687241</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="L12" t="n">
-        <v>1060.3864687241</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="M12" t="n">
-        <v>1060.3864687241</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.3864687241</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.3864687241</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.3864687241</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1601.125407356176</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>764.552261389319</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C13" t="n">
-        <v>764.552261389319</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D13" t="n">
-        <v>598.6742685908417</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E13" t="n">
-        <v>428.916264841579</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F13" t="n">
-        <v>252.2092108033352</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G13" t="n">
-        <v>86.61793582916286</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="H13" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I13" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.718033874507</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2512.476665172503</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2266.597218750958</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>1988.164218004064</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.208709874494</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1429.182305460786</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.790550794198</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>956.3708801083062</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1326.140785015703</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.140785015703</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>890.2310001901478</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>456.4562553484429</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>456.4562553484429</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>55.05842397170682</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05842397170682</v>
+        <v>94.18688869171362</v>
       </c>
       <c r="I14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J14" t="n">
-        <v>490.3131114246247</v>
+        <v>529.0247867717715</v>
       </c>
       <c r="K14" t="n">
-        <v>1171.661108074496</v>
+        <v>1363.375078729949</v>
       </c>
       <c r="L14" t="n">
-        <v>1171.661108074496</v>
+        <v>1987.494405187083</v>
       </c>
       <c r="M14" t="n">
-        <v>1171.661108074496</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="N14" t="n">
-        <v>1171.661108074496</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="O14" t="n">
-        <v>1355.920351223817</v>
+        <v>3144.542240397634</v>
       </c>
       <c r="P14" t="n">
-        <v>2037.268347873689</v>
+        <v>3972.85211523103</v>
       </c>
       <c r="Q14" t="n">
-        <v>2583.767133832284</v>
+        <v>4519.350901189625</v>
       </c>
       <c r="R14" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="S14" t="n">
-        <v>2669.269324769178</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="T14" t="n">
-        <v>2449.202097642216</v>
+        <v>4688.504965942681</v>
       </c>
       <c r="U14" t="n">
-        <v>2189.979794959233</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>1827.362844893059</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>1827.362844893059</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>1408.22038147237</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1326.140785015703</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026411</v>
       </c>
       <c r="H15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I15" t="n">
-        <v>81.12209713216441</v>
+        <v>119.8337724793112</v>
       </c>
       <c r="J15" t="n">
-        <v>405.6804220983768</v>
+        <v>444.3920974455235</v>
       </c>
       <c r="K15" t="n">
-        <v>405.6804220983768</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>405.6804220983768</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>405.6804220983768</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>405.6804220983768</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>405.6804220983768</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1087.028418748248</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1627.767357380324</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.1344400946909</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>570.5727285779159</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>570.5727285779159</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>570.5727285779159</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>393.8656745396721</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>228.2743995654998</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="H16" t="n">
-        <v>88.3722252558743</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="I16" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885362</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2650.300212579878</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2491.058843877875</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2245.17939745633</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1966.746396709435</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1679.790888579866</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1407.764484166157</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1162.37272949957</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>934.9530588136781</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,49 +5518,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,22 +5761,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,37 +5977,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3184.458419759166</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3011.896708242391</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443914</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694651</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2499.553657656407</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.382823542349</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>4408.07037637391</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4121.114868244341</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>3849.088463830632</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3603.696709164045</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3376.277038478153</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.710185817961</v>
+        <v>3575.440564248062</v>
       </c>
       <c r="C31" t="n">
-        <v>926.148474301186</v>
+        <v>3402.878852731287</v>
       </c>
       <c r="D31" t="n">
-        <v>760.2704815027087</v>
+        <v>3237.00085993281</v>
       </c>
       <c r="E31" t="n">
-        <v>590.5124777534459</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F31" t="n">
-        <v>413.8054237152021</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G31" t="n">
-        <v>248.2141487410298</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V31" t="n">
-        <v>2035.366634303136</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W31" t="n">
-        <v>1763.340229889428</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.94847522284</v>
+        <v>3994.678853652941</v>
       </c>
       <c r="Y31" t="n">
-        <v>1290.528804536948</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>730.3301528254058</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>560.572149076143</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7126,19 +7128,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7202,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1318.5152191538</v>
+        <v>2188.014873871654</v>
       </c>
       <c r="C41" t="n">
-        <v>1318.5152191538</v>
+        <v>1749.872401055077</v>
       </c>
       <c r="D41" t="n">
-        <v>1318.5152191538</v>
+        <v>1313.962616229522</v>
       </c>
       <c r="E41" t="n">
-        <v>884.7404743120951</v>
+        <v>880.1878713878168</v>
       </c>
       <c r="F41" t="n">
-        <v>456.8730447213029</v>
+        <v>452.3204417970246</v>
       </c>
       <c r="G41" t="n">
-        <v>55.47521334456681</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H41" t="n">
-        <v>55.47521334456681</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K41" t="n">
-        <v>736.4064206215786</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L41" t="n">
-        <v>1417.75441727145</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="M41" t="n">
-        <v>1417.75441727145</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N41" t="n">
-        <v>2099.102413921322</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O41" t="n">
-        <v>2099.102413921322</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2752.921198585341</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2752.921198585341</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2669.269324769178</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2669.269324769178</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.269324769178</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V41" t="n">
-        <v>2306.652374703004</v>
+        <v>3846.598486066564</v>
       </c>
       <c r="W41" t="n">
-        <v>2145.943806274836</v>
+        <v>3441.743031477597</v>
       </c>
       <c r="X41" t="n">
-        <v>1726.801342854147</v>
+        <v>3022.600568056908</v>
       </c>
       <c r="Y41" t="n">
-        <v>1318.5152191538</v>
+        <v>2614.314444356562</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>81.12209713216441</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>238.4294140564325</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>238.4294140564325</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>238.4294140564325</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>919.7774107063043</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1601.125407356176</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1601.125407356176</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1601.125407356176</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1601.125407356176</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>743.1344400946909</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C43" t="n">
-        <v>570.5727285779159</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D43" t="n">
-        <v>404.6947357794386</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E43" t="n">
-        <v>234.9367320301758</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F43" t="n">
-        <v>58.22967799193205</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.300212579878</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2491.058843877875</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.17939745633</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.746396709435</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.790888579866</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.764484166157</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X43" t="n">
-        <v>1162.37272949957</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.9530588136781</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.169645419196</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.027172602619</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>917.1173877770639</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>483.3426429353591</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>55.47521334456681</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>55.47521334456681</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>55.47521334456681</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>55.05842397170682</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>736.4064206215786</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1417.75441727145</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.75441727145</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2099.102413921322</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>2752.921198585341</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2752.921198585341</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2669.269324769178</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2449.202097642216</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>2199.455769119543</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>2199.455769119543</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W44" t="n">
-        <v>2199.455769119543</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>2199.455769119543</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1791.169645419196</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>55.05842397170682</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>356.2166687302667</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1036.950188800644</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1718.298185450516</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1718.298185450516</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1718.298185450516</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1718.298185450516</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1718.298185450516</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1718.298185450516</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>743.1344400946909</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>570.5727285779159</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>404.6947357794386</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>234.9367320301758</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>58.22967799193205</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>55.05842397170682</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>55.05842397170682</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2650.300212579878</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2491.058843877875</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.17939745633</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>1966.746396709435</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1679.790888579866</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.764484166157</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1162.37272949957</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.9530588136781</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8064,22 +8066,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>345.0097498941941</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8453,22 +8455,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8535,22 +8537,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="P9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.2232223078038</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,22 +8692,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>514.7543470900093</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>688.2302996463352</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>630.4235620779129</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>91.44528087898152</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>239.9071053991102</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10133,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10601,7 +10603,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10901,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>688.2302996463352</v>
+        <v>954.405546537402</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>688.2302996463354</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>660.4230148121396</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>158.8962797214829</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>688.2302996463352</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>304.2002472308686</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>194.0192887222371</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>193.7150767318055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H13" t="n">
-        <v>107.2592358276477</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>111.2039336442355</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>322.9444619712429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>54.79268646174561</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.3589898130759</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>90.2200092229009</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>111.4236523045829</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>42.41901400957954</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.7054172991904</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>3.146865729424206</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>9.381214418706435</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>111.2039336442348</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>161.9268490649753</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>624920.7461606226</v>
+        <v>624267.839906988</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>624920.7461606226</v>
+        <v>624267.839906988</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>414208.0931959287</v>
+        <v>593888.9304013057</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>414208.0931959286</v>
+        <v>593888.9304013057</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633298.8352699276</v>
+        <v>633298.8352699277</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633298.8352699276</v>
+        <v>633298.8352699275</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633298.8352699276</v>
+        <v>633298.8352699275</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>414208.0931959287</v>
+        <v>593888.9304013058</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>414208.0931959286</v>
+        <v>593888.9304013058</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287654</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287655</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
-      <c r="D2" t="n">
-        <v>348495.7579287655</v>
-      </c>
       <c r="E2" t="n">
-        <v>223983.7357223556</v>
+        <v>321146.456142557</v>
       </c>
       <c r="F2" t="n">
-        <v>223983.7357223555</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26338,7 +26340,7 @@
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="L2" t="n">
         <v>342457.429689279</v>
@@ -26347,13 +26349,13 @@
         <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="O2" t="n">
-        <v>223983.7357223556</v>
+        <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>223983.7357223556</v>
+        <v>321146.4561425569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
-        <v>6692.439318494999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717477</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>161718.4283916422</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
-        <v>5331.402065127076</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
-        <v>145020.4789843648</v>
+        <v>148010.1942457892</v>
       </c>
       <c r="D4" t="n">
-        <v>145020.4789843647</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>35686.07469539072</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="F4" t="n">
-        <v>35686.07469539072</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="O4" t="n">
-        <v>35686.07469539072</v>
+        <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>35686.07469539072</v>
+        <v>51166.46699861009</v>
       </c>
     </row>
     <row r="5">
@@ -26467,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="F5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.27548232875</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-97426.6594628262</v>
+        <v>-97426.65946282627</v>
       </c>
       <c r="C6" t="n">
-        <v>121310.8374074084</v>
+        <v>126273.0391212186</v>
       </c>
       <c r="D6" t="n">
-        <v>128003.2767259036</v>
+        <v>126273.0391212186</v>
       </c>
       <c r="E6" t="n">
-        <v>146453.2588084677</v>
+        <v>48048.96008987038</v>
       </c>
       <c r="F6" t="n">
-        <v>146453.2588084676</v>
+        <v>198714.7136616182</v>
       </c>
       <c r="G6" t="n">
-        <v>48458.93758222161</v>
+        <v>181087.5568012559</v>
       </c>
       <c r="H6" t="n">
-        <v>210177.3659738636</v>
+        <v>210177.3659738638</v>
       </c>
       <c r="I6" t="n">
         <v>210177.3659738638</v>
       </c>
       <c r="J6" t="n">
-        <v>35526.01725615759</v>
+        <v>35526.01725615753</v>
       </c>
       <c r="K6" t="n">
-        <v>204845.9639087367</v>
+        <v>210177.3659738638</v>
       </c>
       <c r="L6" t="n">
+        <v>210177.3659738637</v>
+      </c>
+      <c r="M6" t="n">
+        <v>84426.27763817308</v>
+      </c>
+      <c r="N6" t="n">
         <v>210177.3659738638</v>
       </c>
-      <c r="M6" t="n">
-        <v>210177.3659738638</v>
-      </c>
-      <c r="N6" t="n">
-        <v>210177.3659738637</v>
-      </c>
       <c r="O6" t="n">
-        <v>146453.2588084677</v>
+        <v>198714.7136616182</v>
       </c>
       <c r="P6" t="n">
-        <v>146453.2588084677</v>
+        <v>198714.7136616181</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="F4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.12624148567</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078573</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778135</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778133</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>253.4649560972578</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>193.3230123105428</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>58.58727362741748</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>223.1369608195778</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>270.9367814358974</v>
       </c>
       <c r="D5" t="n">
-        <v>146.0811966154999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140.7232059832936</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3176718150381</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>338.8964581122898</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>32.95267764171894</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34784,22 +34786,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>345.0097498941941</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,22 +35175,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="P9" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.2232223078038</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>514.7543470900093</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>688.2302996463352</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>630.4235620779129</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>186.1204476255764</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>91.44528087898152</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>980.0845558811002</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>239.9071053991102</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36853,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>-6.786426882829224e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>688.2302996463352</v>
+        <v>954.405546537402</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>688.2302996463354</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>660.4230148121396</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>158.8962797214829</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>688.2302996463352</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>304.2002472308686</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1044672.678679517</v>
+        <v>1044066.59105062</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797169</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7181698.156231138</v>
+        <v>7181698.156231137</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>240.4380357778681</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>214.1242682761302</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>29.18607610565393</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>126.8355823247562</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>162.8242666525135</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1122,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>311.9415390266475</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>84.69229718259454</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>135.1077460700512</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1423,13 +1423,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>164.9714918432747</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023038</v>
+        <v>73.01514676193494</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,10 +1618,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799266</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>145.4261460119178</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480023038</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2006427344284</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2490,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480023854</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3435,13 +3435,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>82.14201637551359</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.34318456170439</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>210.1841236695487</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>354.9648390533892</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>130.983089089443</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7884964950064</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>247.786846921277</v>
+        <v>344.4887900505539</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>3.423392126084805</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>81.01098805494637</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2284.764653898988</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C2" t="n">
-        <v>2041.897951093061</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D2" t="n">
-        <v>1605.988166267505</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E2" t="n">
-        <v>1172.213421425801</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>270.1051455743473</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932282</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932282</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.37159938372</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.269540003434</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y2" t="n">
-        <v>2307.023820343492</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>900.7186013536161</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>900.7186013536161</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
-        <v>734.8406085551388</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>565.0826048058761</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>388.3755507676324</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>222.78427579346</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88210148383456</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2648.6430051368</v>
+        <v>2541.944076608442</v>
       </c>
       <c r="T4" t="n">
-        <v>2402.763558715255</v>
+        <v>2296.064630186897</v>
       </c>
       <c r="U4" t="n">
-        <v>2124.330557968361</v>
+        <v>2017.631629440002</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.375049838791</v>
+        <v>1730.676121310433</v>
       </c>
       <c r="W4" t="n">
-        <v>1565.348645425083</v>
+        <v>1458.649716896724</v>
       </c>
       <c r="X4" t="n">
-        <v>1319.956890758495</v>
+        <v>1213.257962230137</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.537220072603</v>
+        <v>985.8382915442448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.7581132933932</v>
+        <v>489.9592645846401</v>
       </c>
       <c r="C5" t="n">
-        <v>543.2891570787331</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D5" t="n">
-        <v>107.3793722531775</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>77.64503145187678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.5406628060929</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>2009.22077188965</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2366.341725488304</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.341725488304</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1961.486270899337</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1542.343807478648</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y5" t="n">
-        <v>1134.057683778301</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C7" t="n">
         <v>959.897665623735</v>
@@ -4722,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2243.522190013251</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1735.906148501163</v>
+        <v>1267.502422415565</v>
       </c>
       <c r="C8" t="n">
-        <v>1297.763675684586</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D8" t="n">
-        <v>861.8538908590308</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E8" t="n">
-        <v>428.079146017326</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
         <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362199</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2585.593902066702</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>2166.451438646013</v>
+        <v>1990.881009779192</v>
       </c>
       <c r="Y8" t="n">
-        <v>2162.205718986071</v>
+        <v>1582.594886078846</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>740.3049442308646</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
         <v>1058.729261281022</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>760.7341398538243</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>760.7341398538243</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
         <v>624.2616690759949</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
         <v>2082.266833883286</v>
@@ -5035,58 +5035,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717715</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>529.0247867717715</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L11" t="n">
-        <v>529.0247867717715</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M11" t="n">
-        <v>1038.631590390881</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827328</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397634</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.85211523103</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189625</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126518</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4604.853092126518</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4345.630789443535</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5111,31 +5111,31 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8461154418378</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C13" t="n">
-        <v>609.2844039250627</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D13" t="n">
-        <v>443.4064111265855</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E13" t="n">
-        <v>273.6484073773227</v>
+        <v>432.8897760793262</v>
       </c>
       <c r="F13" t="n">
-        <v>96.94135333907892</v>
+        <v>256.1827220410823</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885362</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885362</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5226,25 +5226,25 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.664734160825</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G14" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171362</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>529.0247867717715</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1363.375078729949</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1987.494405187083</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>3144.542240397634</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397634</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397634</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.85211523103</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189625</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942681</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942681</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942681</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4541.609868960946</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>4178.992918894773</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5348,16 +5348,16 @@
         <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>135.5057515026411</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>119.8337724793112</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>444.3920974455235</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
         <v>1099.098144071247</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885362</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5518,25 +5518,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5743,10 +5743,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2404.930957497405</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759166</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C25" t="n">
-        <v>3011.896708242391</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.018715443914</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E25" t="n">
-        <v>2676.260711694651</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F25" t="n">
-        <v>2499.553657656407</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636181</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.382823542349</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.07037637391</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244341</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830632</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164045</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478153</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248062</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731287</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.00085993281</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183547</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145303</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5113.04201353898</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652941</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7137,10 +7137,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,13 +7250,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
         <v>1107.588885023173</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G40" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2325.954064551141</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2047.521063804246</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1760.565555674676</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1488.539151260968</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1243.147396594381</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1015.727725908489</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2188.014873871654</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C41" t="n">
-        <v>1749.872401055077</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D41" t="n">
-        <v>1313.962616229522</v>
+        <v>1489.533045096344</v>
       </c>
       <c r="E41" t="n">
-        <v>880.1878713878168</v>
+        <v>1055.758300254639</v>
       </c>
       <c r="F41" t="n">
-        <v>452.3204417970246</v>
+        <v>627.8908706638467</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77009931885365</v>
+        <v>226.4930392871106</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>93.77009931885365</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1038.631590390881</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.631590390881</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4468.437738815721</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4209.215436132738</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V41" t="n">
-        <v>3846.598486066564</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W41" t="n">
-        <v>3441.743031477597</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X41" t="n">
-        <v>3022.600568056908</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y41" t="n">
-        <v>2614.314444356562</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>941.0874841438413</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>768.5257726270662</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>602.6477798285889</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>432.8897760793262</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>256.1827220410823</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.011887927025</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2443.132441505481</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2164.699440758586</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1877.743932629016</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1605.717528215308</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1360.32577354872</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.906102862828</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.409306699863</v>
+        <v>2119.011475323127</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.266833883286</v>
+        <v>1680.86900250655</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1244.959217680994</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.582304216026</v>
+        <v>811.1844728392896</v>
       </c>
       <c r="F44" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G44" t="n">
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
         <v>529.0247867717716</v>
@@ -7654,46 +7654,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>4429.282663259699</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>4178.992918894773</v>
+        <v>3777.595087518037</v>
       </c>
       <c r="W44" t="n">
-        <v>3774.137464305806</v>
+        <v>3372.73963292907</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.995000885117</v>
+        <v>2953.597169508381</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.70887718477</v>
+        <v>2545.311045808035</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7848,10 +7848,10 @@
         <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1364.646878649722</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>514.7543470900093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8932,25 +8932,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>630.4235620779129</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10588,25 +10588,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>954.405546537402</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>194.0192887222371</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>90.92021546249566</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>14.50199051495775</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>111.2039336442355</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>90.2200092229009</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444067</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>56.36113619101563</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>33.23652828778057</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>42.41901400957954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>155.2557639217729</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.146865729424206</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>111.2039336442348</v>
+        <v>14.50199051495781</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>161.9268490649753</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>593888.9304013057</v>
+        <v>593888.9304013059</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593888.9304013057</v>
+        <v>593888.9304013059</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633298.8352699276</v>
+        <v>633298.8352699275</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>633298.8352699277</v>
+        <v>633298.8352699275</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>633298.8352699275</v>
+        <v>633298.8352699276</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633298.8352699275</v>
+        <v>633298.8352699276</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>593888.9304013058</v>
+        <v>593888.9304013059</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>593888.9304013058</v>
+        <v>593888.9304013059</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>348495.7579287654</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26340,10 +26340,10 @@
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="M2" t="n">
         <v>342457.429689279</v>
@@ -26355,7 +26355,7 @@
         <v>321146.456142557</v>
       </c>
       <c r="P2" t="n">
-        <v>321146.4561425569</v>
+        <v>321146.456142557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717477</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>148010.1942457891</v>
       </c>
       <c r="C4" t="n">
+        <v>148010.1942457891</v>
+      </c>
+      <c r="D4" t="n">
         <v>148010.1942457892</v>
       </c>
-      <c r="D4" t="n">
-        <v>148010.1942457891</v>
-      </c>
       <c r="E4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="F4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.46699861011</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26447,19 +26447,19 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
         <v>51166.46699861009</v>
       </c>
       <c r="P4" t="n">
-        <v>51166.46699861009</v>
+        <v>51166.4669986101</v>
       </c>
     </row>
     <row r="5">
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232875</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-97426.65946282627</v>
+        <v>-97426.65946282631</v>
       </c>
       <c r="C6" t="n">
         <v>126273.0391212186</v>
@@ -26530,40 +26530,40 @@
         <v>126273.0391212186</v>
       </c>
       <c r="E6" t="n">
-        <v>48048.96008987038</v>
+        <v>47943.77046761556</v>
       </c>
       <c r="F6" t="n">
-        <v>198714.7136616182</v>
+        <v>198609.5240393635</v>
       </c>
       <c r="G6" t="n">
-        <v>181087.5568012559</v>
+        <v>181064.3324618733</v>
       </c>
       <c r="H6" t="n">
-        <v>210177.3659738638</v>
+        <v>210154.141634481</v>
       </c>
       <c r="I6" t="n">
-        <v>210177.3659738638</v>
+        <v>210154.1416344811</v>
       </c>
       <c r="J6" t="n">
-        <v>35526.01725615753</v>
+        <v>35502.79291677495</v>
       </c>
       <c r="K6" t="n">
-        <v>210177.3659738638</v>
+        <v>210154.1416344811</v>
       </c>
       <c r="L6" t="n">
-        <v>210177.3659738637</v>
+        <v>210154.141634481</v>
       </c>
       <c r="M6" t="n">
-        <v>84426.27763817308</v>
+        <v>84403.0532987903</v>
       </c>
       <c r="N6" t="n">
-        <v>210177.3659738638</v>
+        <v>210154.1416344811</v>
       </c>
       <c r="O6" t="n">
-        <v>198714.7136616182</v>
+        <v>198609.5240393635</v>
       </c>
       <c r="P6" t="n">
-        <v>198714.7136616181</v>
+        <v>198609.5240393635</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.12624148567</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078573</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778135</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778133</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>193.3230123105428</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.11458473508574</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>58.58727362741748</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>30.81337269022707</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>270.9367814358974</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>110.0950357534112</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>338.8964581122898</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
       </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>32.95267764171894</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>514.7543470900093</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35573,7 +35573,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35649,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>630.4235620779129</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304774</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35886,28 +35886,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>239.9071053991102</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37308,28 +37308,28 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>954.405546537402</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.102282997861</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
